--- a/data/long_razon/P24_9-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_9-Edad-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>291,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>40,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-42,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>78,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,02%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1905,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-77,91; 140,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-59,26; 440,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-65,14; 215,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,06; 302,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-81,56; 71,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 289,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 109,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,22; 116,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>622,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-28,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-19,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>67,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-29,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,79; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-73,91; 94,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-68,44; 172,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,43; 75,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,17; 279,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,47; 12,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 215,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 94,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,77; 28,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>285,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-39,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>131,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-21,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1103,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,61; 853,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-71,47; 54,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-55,5; 162,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,75; 162,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,78; 125,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 67,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,13; 291,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-50,06; 44,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-26,97; 77,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>75,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>42,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1273,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 380,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 308,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 92,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,19; 151,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 215,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 217,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 149,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,73; 183,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 105,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1360,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-33,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>158,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-23,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-27,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>50,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-25,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1443,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-90,4; 121,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 653,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-59,85; 35,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-40,81; 158,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-46,0; 85,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 30,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-50,76; 91,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 157,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-52,09; 12,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1530,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>366,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-46,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>68,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>37,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>49,04%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1613,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 3686,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-91,03; 91,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 315,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,97; 164,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,55; 85,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 188,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 305,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-69,41; 35,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 140,64</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1700,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>171,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>62,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1345,62 +1783,99 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>59,43; 339,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 30,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 63,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 56,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 56,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-17,4; 34,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,68; 108,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 32,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 34,03</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/long_razon/P24_9-Edad-long_razon.xlsx
+++ b/data/long_razon/P24_9-Edad-long_razon.xlsx
@@ -683,21 +683,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
-      <c r="Q4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>2.699898653117575</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1725321574775202</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.3596159226599582</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.320468103240549</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.529219184615841</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.001776374817603003</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.4337614779210804</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.4590346008805499</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>4.062672047019027</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.3221455482055703</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.7298461190438746</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.07368206618737695</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.05563209102069681</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>2.073978442121868</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>0.8737019585445897</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
@@ -706,21 +736,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
-      <c r="Q5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.1230994678885691</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8148073856073228</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.5310430140531927</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.430273543814703</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6706961552648529</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.6565683327128499</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4859791568893069</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.8541812962567036</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.3595440756188301</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.6633221283212315</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1513406265978826</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.4919325957640278</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.6059936220424941</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.1199852901762621</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>-0.2780110406124545</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -729,21 +789,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
-      <c r="Q6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>12.68940960147239</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.398989208117706</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>4.895316288925083</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.46605341408383</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.18004330090725</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.952538502248246</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.404942214463063</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.574349668733787</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>19.42734887648933</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>3.584262203973972</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>2.752424762191364</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.15630996395324</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>1.046191067622584</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>6.374219799291167</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>3.964271555911845</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -756,21 +846,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
-      <c r="Q7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>8.099977112879909</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.4259695016566278</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.05375275034519294</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.8308187257022508</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.8325786277093971</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1742006519213627</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.3801977200192215</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.4593823195547112</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.1176135366103657</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>-0.04555972979589917</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.9198336196873105</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.09826817475421783</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.3195679768954416</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.359466973000635</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>0.1399440340786471</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -779,21 +899,49 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>0.7684209110257049</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.8314680252299848</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.6953010341195752</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4919201552237402</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
-      <c r="Q8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-0.6446960831359095</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.4201016516817674</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.7461317152425374</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6109805868277968</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.6025091791032209</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.04475920616547787</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.5279483221957421</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.6405352541312451</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>-0.3637186242385412</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>-0.5154562401383682</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -803,20 +951,46 @@
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="n">
+        <v>0.4960618069391017</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.823816446323534</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.492352154764474</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
-      <c r="Q9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>0.9013080340179092</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>2.259517591047603</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.09873550412737031</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.479861732884428</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.309167342451812</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>2.728700551240342</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.7638715785550173</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.266805605749761</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>1.738851097006611</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>1.537447341370382</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -829,21 +1003,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
-      <c r="Q10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>2.597927036860588</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.3322702407681372</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3452117950154744</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3385050679562193</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.094919986647446</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.3568138411278101</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.2155479186746512</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1004269254125371</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.145558069370681</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>1.693068247955501</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>1.26290173770783</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.1615470446190085</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0.2170617382000611</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>-0.08729138639430455</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>1.377179389014024</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -852,21 +1056,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
-      <c r="Q11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.5683242310181061</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.6836954766448416</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.458134214436519</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.6538407481125758</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1748188206472212</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.3632590456185876</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.3188257320756457</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3300291992125847</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.2911377918675897</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.3440729730208721</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.2773184944498997</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.4724737822595864</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.2147173566972504</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>-0.3643442413038694</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>0.3132169901814742</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
@@ -875,21 +1109,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
-      <c r="Q12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>7.862424687401203</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.6668708154904626</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.635685196591858</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2811659089611993</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.183910220954924</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>1.717907057388303</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.184593777501798</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.6895654378690289</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.9566800242360661</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>5.430098078118771</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>2.736904520026341</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.5900303091516823</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>0.9030184147173641</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.4232780336004288</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>3.184973513998514</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -902,21 +1166,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
-      <c r="Q13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.6405484589074952</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8564911111296066</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.05319022797107367</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.8492634009953043</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.5601487926164035</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2310061670706655</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7440099077881358</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.8495487240523696</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.8970114503273215</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.6967801621614684</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.3481265920271409</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.7891408509793407</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>0.4053446353172498</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.874680345325786</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>0.6222496994443604</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
@@ -925,21 +1219,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
-      <c r="Q14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.3374677021205185</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.116451233820177</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.4111969086754563</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.09800926245142758</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.3414669973427102</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.3672480141851206</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.05680903644187719</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.1577647192279031</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.2238773435189851</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.1566730575040342</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1696775503820786</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.102057455268818</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>0.009773858310680093</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.2816132824532903</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>-0.06923407987957662</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -948,21 +1272,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
-      <c r="Q15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>3.50621074759174</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.013749582813386</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.8412481425309267</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.320111322056471</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>2.958720630314217</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.248207914145309</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>2.274882397971891</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>2.113993327151952</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>2.122991713560799</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>2.19379971636033</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.249377663942235</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>1.818854818851369</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>1.04066980119889</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>1.716952662203359</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>1.871595771481123</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -975,21 +1329,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr"/>
-      <c r="D16" s="5" t="inlineStr"/>
-      <c r="E16" s="5" t="inlineStr"/>
-      <c r="F16" s="5" t="inlineStr"/>
-      <c r="G16" s="5" t="inlineStr"/>
-      <c r="H16" s="5" t="inlineStr"/>
-      <c r="I16" s="5" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-      <c r="L16" s="5" t="inlineStr"/>
-      <c r="M16" s="5" t="inlineStr"/>
-      <c r="N16" s="5" t="inlineStr"/>
-      <c r="O16" s="5" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr"/>
-      <c r="Q16" s="5" t="inlineStr"/>
+      <c r="C16" s="5" t="n">
+        <v>-0.3766886199217953</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.959993042313843</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2358306987710122</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.3201612305681362</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>-0.009029126686707221</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0.260704178080513</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>-0.006527750339316946</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>-0.2706092794900269</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>1.008627176434144</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>1.275405786900957</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>-0.01282949145993815</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>0.59710521997618</v>
+      </c>
+      <c r="O16" s="5" t="n">
+        <v>-0.2535584285387376</v>
+      </c>
+      <c r="P16" s="5" t="n">
+        <v>0.6085038504636524</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>0.3397007996904288</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
@@ -998,21 +1382,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr"/>
-      <c r="D17" s="5" t="inlineStr"/>
-      <c r="E17" s="5" t="inlineStr"/>
-      <c r="F17" s="5" t="inlineStr"/>
-      <c r="G17" s="5" t="inlineStr"/>
-      <c r="H17" s="5" t="inlineStr"/>
-      <c r="I17" s="5" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-      <c r="L17" s="5" t="inlineStr"/>
-      <c r="M17" s="5" t="inlineStr"/>
-      <c r="N17" s="5" t="inlineStr"/>
-      <c r="O17" s="5" t="inlineStr"/>
-      <c r="P17" s="5" t="inlineStr"/>
-      <c r="Q17" s="5" t="inlineStr"/>
+      <c r="C17" s="5" t="n">
+        <v>-0.8891520320996482</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>0.3146652904217113</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-0.5633406832114113</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-0.4242156320607999</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-0.4983563328468004</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-0.3825688325152056</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>-0.4534870574202599</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>-0.622043264287367</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>-0.06009199520942464</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>0.04134498624948133</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>-0.5162546712155706</v>
+      </c>
+      <c r="N17" s="5" t="n">
+        <v>-0.03768148329514213</v>
+      </c>
+      <c r="O17" s="5" t="n">
+        <v>-0.515595717230642</v>
+      </c>
+      <c r="P17" s="5" t="n">
+        <v>-0.08869439813673093</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>-0.2037725097382888</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
@@ -1021,21 +1435,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr"/>
-      <c r="D18" s="5" t="inlineStr"/>
-      <c r="E18" s="5" t="inlineStr"/>
-      <c r="F18" s="5" t="inlineStr"/>
-      <c r="G18" s="5" t="inlineStr"/>
-      <c r="H18" s="5" t="inlineStr"/>
-      <c r="I18" s="5" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-      <c r="L18" s="5" t="inlineStr"/>
-      <c r="M18" s="5" t="inlineStr"/>
-      <c r="N18" s="5" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr"/>
-      <c r="P18" s="5" t="inlineStr"/>
-      <c r="Q18" s="5" t="inlineStr"/>
+      <c r="C18" s="5" t="n">
+        <v>0.7909448612675116</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.413190877170889</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.4392800437358737</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>1.746198329811629</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>0.8390031613243325</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>1.543999806819164</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>0.9087606034991347</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>0.3297917790577187</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>2.915012553016096</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>3.99398846720796</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>0.7788727958598437</v>
+      </c>
+      <c r="N18" s="5" t="n">
+        <v>1.644835611884178</v>
+      </c>
+      <c r="O18" s="5" t="n">
+        <v>0.07864020623594738</v>
+      </c>
+      <c r="P18" s="5" t="n">
+        <v>1.586222278995196</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>1.308829229337495</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1048,21 +1492,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr"/>
-      <c r="D19" s="5" t="inlineStr"/>
-      <c r="E19" s="5" t="inlineStr"/>
-      <c r="F19" s="5" t="inlineStr"/>
-      <c r="G19" s="5" t="inlineStr"/>
-      <c r="H19" s="5" t="inlineStr"/>
-      <c r="I19" s="5" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-      <c r="L19" s="5" t="inlineStr"/>
-      <c r="M19" s="5" t="inlineStr"/>
-      <c r="N19" s="5" t="inlineStr"/>
-      <c r="O19" s="5" t="inlineStr"/>
-      <c r="P19" s="5" t="inlineStr"/>
-      <c r="Q19" s="5" t="inlineStr"/>
+      <c r="C19" s="5" t="n">
+        <v>4.243533129158672</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-0.4862879988390014</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.6118323668815465</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>1.072204396146087</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>0.8379561077523586</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>0.4443222757615515</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>-0.1353849049391537</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>0.5060119670257579</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>2.035872177896644</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>3.500746325281779</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>1.142936889045031</v>
+      </c>
+      <c r="N19" s="5" t="n">
+        <v>-0.3103998400415272</v>
+      </c>
+      <c r="O19" s="5" t="n">
+        <v>0.5454317437617683</v>
+      </c>
+      <c r="P19" s="5" t="n">
+        <v>1.541042553573646</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>2.268439896260319</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
@@ -1071,21 +1545,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr"/>
-      <c r="D20" s="5" t="inlineStr"/>
-      <c r="E20" s="5" t="inlineStr"/>
-      <c r="F20" s="5" t="inlineStr"/>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-      <c r="I20" s="5" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-      <c r="L20" s="5" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr"/>
-      <c r="N20" s="5" t="inlineStr"/>
-      <c r="O20" s="5" t="inlineStr"/>
-      <c r="P20" s="5" t="inlineStr"/>
-      <c r="Q20" s="5" t="inlineStr"/>
+      <c r="C20" s="5" t="n">
+        <v>0.3072702770444238</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-0.8943418388547627</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-0.2854174754375334</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-0.3125821520813732</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>-0.6294567513582892</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>-0.3603227763605996</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>-0.6160447897808635</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>-0.1648254674212614</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>0.03419646915245876</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>-0.01086471335522676</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>0.05018716209088445</v>
+      </c>
+      <c r="N20" s="5" t="n">
+        <v>-0.7221877201683683</v>
+      </c>
+      <c r="O20" s="5" t="n">
+        <v>-0.07612901112949198</v>
+      </c>
+      <c r="P20" s="5" t="n">
+        <v>0.2977356712386598</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>0.149718469407726</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
@@ -1094,21 +1598,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr"/>
-      <c r="D21" s="5" t="inlineStr"/>
-      <c r="E21" s="5" t="inlineStr"/>
-      <c r="F21" s="5" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
-      <c r="I21" s="5" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-      <c r="L21" s="5" t="inlineStr"/>
-      <c r="M21" s="5" t="inlineStr"/>
-      <c r="N21" s="5" t="inlineStr"/>
-      <c r="O21" s="5" t="inlineStr"/>
-      <c r="P21" s="5" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr"/>
+      <c r="C21" s="5" t="n">
+        <v>25.27011249788183</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>0.8740643180576607</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>3.157991443919067</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>4.395947690496492</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>6.467176098127557</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>2.026799267370512</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>0.9021426202578769</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2.127196909954577</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>7.192991642632457</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>22.24050107915495</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>3.300387859031559</v>
+      </c>
+      <c r="N21" s="5" t="n">
+        <v>0.3194585218098759</v>
+      </c>
+      <c r="O21" s="5" t="n">
+        <v>1.568747565862219</v>
+      </c>
+      <c r="P21" s="5" t="n">
+        <v>4.140076443411337</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>8.52085489085778</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1121,21 +1655,51 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-      <c r="L22" s="5" t="inlineStr"/>
-      <c r="M22" s="5" t="inlineStr"/>
-      <c r="N22" s="5" t="inlineStr"/>
-      <c r="O22" s="5" t="inlineStr"/>
-      <c r="P22" s="5" t="inlineStr"/>
-      <c r="Q22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>1.797237814725159</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-0.08548893022724144</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.1727973611826031</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>0.5252215085939211</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>0.6178853946024178</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>0.2090704947219517</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>0.2046136864116673</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>0.06652218101415212</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>0.856806640307516</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>0.9931362455236665</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>0.6812025845144314</v>
+      </c>
+      <c r="N22" s="5" t="n">
+        <v>0.04863755241064457</v>
+      </c>
+      <c r="O22" s="5" t="n">
+        <v>0.1151674643663785</v>
+      </c>
+      <c r="P22" s="5" t="n">
+        <v>0.691657231351528</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>0.7971585600923509</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
@@ -1144,21 +1708,51 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="5" t="inlineStr"/>
-      <c r="K23" s="5" t="inlineStr"/>
-      <c r="L23" s="5" t="inlineStr"/>
-      <c r="M23" s="5" t="inlineStr"/>
-      <c r="N23" s="5" t="inlineStr"/>
-      <c r="O23" s="5" t="inlineStr"/>
-      <c r="P23" s="5" t="inlineStr"/>
-      <c r="Q23" s="5" t="inlineStr"/>
+      <c r="C23" s="5" t="n">
+        <v>0.5921157176400202</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-0.4134057046559325</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-0.1599160667154546</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>0.08464617939134103</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>0.1311731214958532</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>-0.1254352516937469</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>-0.1105125914184287</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>-0.1733141210087917</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>0.3892745176136533</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>0.3852884874158771</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>0.2823456302608228</v>
+      </c>
+      <c r="N23" s="5" t="n">
+        <v>-0.2023804052325189</v>
+      </c>
+      <c r="O23" s="5" t="n">
+        <v>-0.07727477649016762</v>
+      </c>
+      <c r="P23" s="5" t="n">
+        <v>0.3596567511482875</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>0.3838365912491453</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
@@ -1167,21 +1761,51 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
-      <c r="L24" s="5" t="inlineStr"/>
-      <c r="M24" s="5" t="inlineStr"/>
-      <c r="N24" s="5" t="inlineStr"/>
-      <c r="O24" s="5" t="inlineStr"/>
-      <c r="P24" s="5" t="inlineStr"/>
-      <c r="Q24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>3.440212281893435</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.3914676794159621</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.6857591571895715</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1.149826439054628</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>1.402512478835769</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>0.62725666098116</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0.5793462099399362</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0.3671806088049491</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>1.477581594860462</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>1.879688797244868</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>1.191511014983939</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0.3082875947110512</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>0.3643188357931653</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>1.122451667627698</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>1.379500093362773</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
